--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/51.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/51.xlsx
@@ -479,13 +479,13 @@
         <v>-5.450189581549846</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.107466801143206</v>
+        <v>-9.058082634824215</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.694591839855064</v>
+        <v>-1.738149931409487</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.702832906162941</v>
+        <v>-7.753552487371787</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.01346491269721</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.763011496731272</v>
+        <v>-9.716730206185769</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.709936018785567</v>
+        <v>-1.748846342831177</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.571294539512119</v>
+        <v>-7.617628199268988</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.539094357907298</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.30033269765855</v>
+        <v>-10.26163185045841</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.707108081371754</v>
+        <v>-1.747916789329414</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.372134428683782</v>
+        <v>-7.426978085287772</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.073855004936359</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.94917413419165</v>
+        <v>-10.91102316371086</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.710708464653229</v>
+        <v>-1.748100081569198</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.956453813458979</v>
+        <v>-7.004397826465381</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.620046040556429</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.55758653954951</v>
+        <v>-11.52349418294965</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.762174307124054</v>
+        <v>-1.803572168709592</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.709912658646436</v>
+        <v>-6.75590591852942</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.195291473263929</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.35795828917274</v>
+        <v>-12.32192827175231</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.548468647838559</v>
+        <v>-1.58761463333532</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.331767675668861</v>
+        <v>-6.380366303817349</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.807598768302757</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.99701977548308</v>
+        <v>-12.9625739267065</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.456403574255542</v>
+        <v>-1.492656160824281</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.661284662538386</v>
+        <v>-5.710655736554536</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.47002687109517</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.61059054816057</v>
+        <v>-13.57577811490442</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.340602155620475</v>
+        <v>-1.381476325092343</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.274695144227899</v>
+        <v>-5.317925928211278</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.187917410590014</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.24001609957939</v>
+        <v>-14.21142251017306</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.268293367025622</v>
+        <v>-1.303027246464721</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.869409817459427</v>
+        <v>-4.916529015386799</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.965084201875575</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.08130129558303</v>
+        <v>-15.05717218144573</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.158082361703971</v>
+        <v>-1.191153518682172</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.308260625360206</v>
+        <v>-4.349449010100276</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.800446583665758</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.85873533062756</v>
+        <v>-15.83787929220069</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9153510670183701</v>
+        <v>-0.9518916842496276</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.790250571124473</v>
+        <v>-3.827354157377924</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.689625591555478</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.62028840232508</v>
+        <v>-16.60470856194343</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8233121780410358</v>
+        <v>-0.8638983168503866</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.325997512356866</v>
+        <v>-3.357196470028699</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.630080725682013</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.35136259300707</v>
+        <v>-17.33808699792556</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6401377689824465</v>
+        <v>-0.6780923549206104</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.752423724860847</v>
+        <v>-2.774484255149155</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.615623436518634</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.11493187934222</v>
+        <v>-18.1013420689925</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4565967754442887</v>
+        <v>-0.4976149602474165</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.469669260388089</v>
+        <v>-2.494662466512944</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.63924851106258</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.98101389692808</v>
+        <v>-18.96951885503304</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.295037758377389</v>
+        <v>-0.3357417279123154</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.900062440653113</v>
+        <v>-1.926901661478651</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.693348182217412</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.81678723343535</v>
+        <v>-19.79921736302175</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.05683640047502495</v>
+        <v>-0.0919237720908508</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.633215124133052</v>
+        <v>-1.655249469815677</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.769808280919297</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.54903973137309</v>
+        <v>-20.53950853490431</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04337208547554638</v>
+        <v>0.01583897259939646</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.193222102531164</v>
+        <v>-1.213070033639221</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.862650832158587</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.26632772716273</v>
+        <v>-21.2545839315137</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3237306585282684</v>
+        <v>0.2912355628751043</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8080596452304251</v>
+        <v>-0.8304998523011435</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.966789117329502</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.90440729075993</v>
+        <v>-21.90101638432393</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4729436340154204</v>
+        <v>0.443616875649954</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5805023295383842</v>
+        <v>-0.5978234461979878</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.080576936917403</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.52362084596221</v>
+        <v>-22.51922183220739</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6583961037684701</v>
+        <v>0.6312295753718886</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2382171640442979</v>
+        <v>-0.2530376508611318</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.203520557776679</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.97705966258255</v>
+        <v>-22.97141688005777</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8243541345901898</v>
+        <v>0.799112174711342</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1212243458506337</v>
+        <v>-0.1433372453503091</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.335639694979417</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.41731453024127</v>
+        <v>-23.41718360721286</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9049503508838554</v>
+        <v>0.8789359451373457</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02984773664004335</v>
+        <v>0.002249162249684804</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.476844937300918</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.91086816276866</v>
+        <v>-23.91050157828909</v>
       </c>
       <c r="F24" t="n">
-        <v>1.046831636779641</v>
+        <v>1.024718737279966</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0278369496806017</v>
+        <v>-0.05184823309232731</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.624761311981048</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.16256768490085</v>
+        <v>-24.1637459921566</v>
       </c>
       <c r="F25" t="n">
-        <v>1.101675293383631</v>
+        <v>1.080779978048237</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1739939909274474</v>
+        <v>0.1443268326880961</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.778500823779402</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.42622047952753</v>
+        <v>-24.42938881681522</v>
       </c>
       <c r="F26" t="n">
-        <v>1.2381232736001</v>
+        <v>1.218903773028447</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07106230598579702</v>
+        <v>0.04042631733615802</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.93472678981534</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.48225553569011</v>
+        <v>-24.47937522906494</v>
       </c>
       <c r="F27" t="n">
-        <v>1.206701746779958</v>
+        <v>1.187888107596398</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1283858355050579</v>
+        <v>-0.1632506379725744</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.089541540669313</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.56177818315076</v>
+        <v>-24.56137232176266</v>
       </c>
       <c r="F28" t="n">
-        <v>1.134680988847623</v>
+        <v>1.115278196036185</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.4808960895185323</v>
+        <v>-0.5247029348269477</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.238221824627197</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.36980574658253</v>
+        <v>-24.37039490021041</v>
       </c>
       <c r="F29" t="n">
-        <v>1.155314458126183</v>
+        <v>1.132298189730429</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5374548377947889</v>
+        <v>-0.5786170379291756</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.375965141824238</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.11142915000107</v>
+        <v>-24.11179573448063</v>
       </c>
       <c r="F30" t="n">
-        <v>1.04447502226813</v>
+        <v>1.017203755448815</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.8519319520530491</v>
+        <v>-0.8986976578036946</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.49998950582842</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.88537744913582</v>
+        <v>-23.88625463342622</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9765914320337805</v>
+        <v>0.9502889956247529</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.077054099416529</v>
+        <v>-1.120625283273793</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.60803810067352</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.5417306841462</v>
+        <v>-23.54034290004497</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9523575794737456</v>
+        <v>0.9236723439475237</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.321853977951123</v>
+        <v>-1.368095991588099</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.697996397310329</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.20747110029409</v>
+        <v>-23.20316373265916</v>
       </c>
       <c r="F33" t="n">
-        <v>0.918880561107452</v>
+        <v>0.888152926337921</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.604202581035787</v>
+        <v>-1.652591732338807</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.767550923402029</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.75003913130702</v>
+        <v>-22.74870371641716</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8515337552896132</v>
+        <v>0.8199420285325282</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.852275535280813</v>
+        <v>-1.894877888727789</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.815246731676115</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.39632438543211</v>
+        <v>-22.3914278641693</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7742891685234293</v>
+        <v>0.7368582746989345</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.145320549787167</v>
+        <v>-2.183536981782166</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.839758261088117</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.8205903679672</v>
+        <v>-21.81501304695663</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8228485197633914</v>
+        <v>0.7853259798190044</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.454639296725787</v>
+        <v>-2.48939936077057</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.841494477228292</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.36770142806622</v>
+        <v>-21.36565902882291</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8424215125117718</v>
+        <v>0.8042312651224568</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.637172182945132</v>
+        <v>-2.669981493866498</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.821134329695855</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.88878499011588</v>
+        <v>-20.88099506992505</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9364635238238901</v>
+        <v>0.9002763987693593</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.767139473254947</v>
+        <v>-2.800564122409873</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.780212799251024</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.39786291045967</v>
+        <v>-20.38339591581957</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9568875162569828</v>
+        <v>0.9207396681109771</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.832339141406743</v>
+        <v>-2.865803067470194</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.722517423208931</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.73725149367186</v>
+        <v>-19.72439485228129</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9749156172700396</v>
+        <v>0.9385582922785664</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.956231603197997</v>
+        <v>-2.989433683204614</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.652836610754508</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.1988698162144</v>
+        <v>-19.19153812662303</v>
       </c>
       <c r="F41" t="n">
-        <v>1.048690743783166</v>
+        <v>1.009466204469355</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.115041236668134</v>
+        <v>-3.146371117368384</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.579143248501699</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.44340466533828</v>
+        <v>-18.43359853050983</v>
       </c>
       <c r="F42" t="n">
-        <v>1.022898907184966</v>
+        <v>0.9849574135496435</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.331627202578808</v>
+        <v>-3.360783761007332</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.509027965060303</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.91959472094366</v>
+        <v>-17.90855790964809</v>
       </c>
       <c r="F43" t="n">
-        <v>1.130753297995105</v>
+        <v>1.095194603476977</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.366766943406001</v>
+        <v>-3.395399809720856</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.449981664372442</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.364520357363</v>
+        <v>-17.35383703824415</v>
       </c>
       <c r="F44" t="n">
-        <v>1.075857272179747</v>
+        <v>1.039827254759317</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.512458089428729</v>
+        <v>-3.541012401926533</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.408104053583727</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.71016706133353</v>
+        <v>-16.69950992682037</v>
       </c>
       <c r="F45" t="n">
-        <v>1.097485756474279</v>
+        <v>1.062568584795396</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.694022145237786</v>
+        <v>-3.720167474012713</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.389158154102354</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.23309663808388</v>
+        <v>-16.22514961025895</v>
       </c>
       <c r="F46" t="n">
-        <v>0.915201624008927</v>
+        <v>0.8851809735928491</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.860582421990225</v>
+        <v>-3.881346814297202</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.397786530487788</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.64417867165736</v>
+        <v>-15.63016990761671</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9948159175894632</v>
+        <v>0.9641144674256156</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.828453910816629</v>
+        <v>-3.850213318139578</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.43598710051258</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.99123934433479</v>
+        <v>-14.97694254963163</v>
       </c>
       <c r="F48" t="n">
-        <v>0.980584584400507</v>
+        <v>0.948037119535976</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.969130704850976</v>
+        <v>-3.99502727987191</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.502876437730075</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.48892696120629</v>
+        <v>-14.47317692088769</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8942932163706905</v>
+        <v>0.8659745653240369</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.080611663548273</v>
+        <v>-4.101664086517768</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.593809919471713</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.97377102899005</v>
+        <v>-13.95270551371771</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8849714967473815</v>
+        <v>0.8591141986349725</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.150773314477083</v>
+        <v>-4.173750305964313</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.703577818623831</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.5029456341959</v>
+        <v>-13.47261076851162</v>
       </c>
       <c r="F51" t="n">
-        <v>0.999607700429535</v>
+        <v>0.9703333112754354</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.240730527302583</v>
+        <v>-4.265959394878589</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.824947839068576</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.86017902618136</v>
+        <v>-12.8322662365228</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8848667583246477</v>
+        <v>0.8603055981935696</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.343439643095924</v>
+        <v>-4.371575001902793</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.951684758849016</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.46430706515609</v>
+        <v>-12.43267606149048</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8963094310083163</v>
+        <v>0.8733717164296122</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.533068557455485</v>
+        <v>-4.559528101498612</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.077125827099992</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.82819134698514</v>
+        <v>-11.79991197284701</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8746547621081013</v>
+        <v>0.8517956013464476</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.716648827902167</v>
+        <v>-4.745072217371554</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.194853346284073</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.44875022602624</v>
+        <v>-11.41893905245563</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8384676370535705</v>
+        <v>0.8128852773008378</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.932069578859928</v>
+        <v>-4.964093351610789</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.300473471353256</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.07364265730794</v>
+        <v>-11.03240190335651</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7613932502243291</v>
+        <v>0.7356014136261287</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.132054504767294</v>
+        <v>-5.162533385782832</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.389950604115185</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.51753400180279</v>
+        <v>-10.47419847939667</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7435484414510565</v>
+        <v>0.7173114665562375</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.212166305855815</v>
+        <v>-5.243928232549843</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.462919532894815</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.28851034819247</v>
+        <v>-10.23975461240988</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6592601957560241</v>
+        <v>0.6294752067910973</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.356351837051744</v>
+        <v>-5.382156765952787</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.518640263545989</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.781798951309149</v>
+        <v>-9.734116784359582</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6867278471179654</v>
+        <v>0.6597315186583262</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.571589295769721</v>
+        <v>-5.596189732809324</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.557155307000067</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.658181427877571</v>
+        <v>-9.601884525658148</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6669977467354842</v>
+        <v>0.643012647929442</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.631106904488208</v>
+        <v>-5.652120050549178</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.57904245481345</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.286595688623702</v>
+        <v>-9.224682188485179</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6993619193602311</v>
+        <v>0.6751673437087212</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.637522132880654</v>
+        <v>-5.663641277049897</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.585887425089144</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.018007095825691</v>
+        <v>-8.948958290638428</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6595613187213838</v>
+        <v>0.6361260966346941</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.716953134221406</v>
+        <v>-5.746973784637484</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.581844229009426</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.684912726926497</v>
+        <v>-8.620433135430996</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6188180722779323</v>
+        <v>0.5968230035038324</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.715578442423024</v>
+        <v>-5.735465650439607</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.57060746286041</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.378474286613056</v>
+        <v>-8.308587574043923</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5152841414055626</v>
+        <v>0.4917179962904556</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.644670530232236</v>
+        <v>-5.65987069383148</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.555644891887501</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.269624880786946</v>
+        <v>-8.200366598754215</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3710331486954247</v>
+        <v>0.3542750010580153</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.658705478878566</v>
+        <v>-5.682127608662414</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.539003099090047</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.069351924217063</v>
+        <v>-8.000119826790014</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3289937642706423</v>
+        <v>0.3086745102602834</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.639721639758063</v>
+        <v>-5.665592030173315</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.524397031892366</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.943796739964909</v>
+        <v>-7.869720490486423</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2338389072169772</v>
+        <v>0.2127602996417983</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.592065657414181</v>
+        <v>-5.617346894201554</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.514368977279041</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.795500225676678</v>
+        <v>-7.72292959102499</v>
       </c>
       <c r="F68" t="n">
-        <v>0.179937896417591</v>
+        <v>0.1577333507980236</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.539526246110334</v>
+        <v>-5.562621068323139</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.511803208200888</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.721869114494811</v>
+        <v>-7.653605847478051</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1761411285934904</v>
+        <v>0.1518679991249303</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.451113925020158</v>
+        <v>-5.471904501932819</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.518054131029057</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.729619757777113</v>
+        <v>-7.660976813977943</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07069572150622869</v>
+        <v>0.04389577758921543</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.354139237871493</v>
+        <v>-5.374288291944909</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.532917328508918</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.806170452492685</v>
+        <v>-7.735537478661572</v>
       </c>
       <c r="F71" t="n">
-        <v>0.07419136636496955</v>
+        <v>0.04612146907230886</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.188600160740709</v>
+        <v>-5.205515416012219</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.557191837201308</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.813083188393116</v>
+        <v>-7.74264659910463</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.002424789864811402</v>
+        <v>-0.02595165807139315</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.107323144699273</v>
+        <v>-5.127590029498265</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.590515892423283</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.028346831716776</v>
+        <v>-7.961157133533038</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.03690991554991786</v>
+        <v>-0.06014875309398163</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.83886547492968</v>
+        <v>-4.859119267425831</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.635514356640463</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.157201276285043</v>
+        <v>-8.086646856270983</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.0989543387168577</v>
+        <v>-0.1188808236419648</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.708243569477779</v>
+        <v>-4.723797225253749</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.693450224642117</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.50213108695316</v>
+        <v>-8.434509342775645</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1733840803720704</v>
+        <v>-0.1987176863708103</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.467463027915595</v>
+        <v>-4.482034760978436</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.765206680409946</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.759224637856134</v>
+        <v>-8.693003770082683</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.168291174566639</v>
+        <v>-0.1917656735618538</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.188649346598196</v>
+        <v>-4.194200483003089</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.851379372250422</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.277326338211759</v>
+        <v>-9.213174054287302</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2381255179244058</v>
+        <v>-0.2598980175501963</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.956915586299645</v>
+        <v>-3.972207396018781</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.951275135022728</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.732611169532783</v>
+        <v>-9.665918978857031</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.181959538733401</v>
+        <v>-0.2058922683280762</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.868097403821376</v>
+        <v>-3.885850566474756</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.068137505554059</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.17884921959017</v>
+        <v>-10.10952547604323</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2515189437314916</v>
+        <v>-0.2738936892880015</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.722249150164547</v>
+        <v>-3.741206804679366</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.203802776013362</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.77059512343051</v>
+        <v>-10.7066785009572</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3014137098613096</v>
+        <v>-0.3280696384470639</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.393239579751971</v>
+        <v>-3.412445988020783</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.35955735044541</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.4489597028717</v>
+        <v>-11.38643086449962</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3173208578140068</v>
+        <v>-0.3429163098695813</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.233251639026078</v>
+        <v>-3.248818387104891</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.536199148982401</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.2955996507376</v>
+        <v>-12.23423602731843</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3809363573219537</v>
+        <v>-0.4059164711439671</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.89603319473174</v>
+        <v>-2.910631112400265</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.733633031320432</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.21157643445328</v>
+        <v>-13.1535644405616</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3561002588311994</v>
+        <v>-0.3825336182686443</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.751088309970991</v>
+        <v>-2.772481132814371</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.952121385353713</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.15236313205404</v>
+        <v>-14.10149953551393</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4130124992841827</v>
+        <v>-0.4381889976488219</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.474042089537225</v>
+        <v>-2.493235405503196</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.192934226951699</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.37854893930158</v>
+        <v>-15.32544655897553</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.457919098031303</v>
+        <v>-0.4874291486365536</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.275209286279932</v>
+        <v>-2.292006710825866</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.455880967885694</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.44385652922998</v>
+        <v>-16.39113382568635</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5533881703531696</v>
+        <v>-0.5831469747124128</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.027987331719618</v>
+        <v>-2.050414446487495</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.739126713511315</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.60958208195443</v>
+        <v>-17.56208320724465</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.485543857027345</v>
+        <v>-0.5143469232791424</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.972646167607642</v>
+        <v>-1.987375008304584</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.040793224924809</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.98570094134542</v>
+        <v>-18.9426796342075</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6398759229256119</v>
+        <v>-0.6686789891774093</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.941172271576133</v>
+        <v>-1.959553864765916</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.356595559561315</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.51242056032478</v>
+        <v>-20.477411742526</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6242044364240659</v>
+        <v>-0.652156502991151</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.928367999396925</v>
+        <v>-1.946592484952607</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.688006771513349</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.14635304727503</v>
+        <v>-22.11243089061212</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6573148703107911</v>
+        <v>-0.6856073367517611</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.938658549430521</v>
+        <v>-1.960457233661995</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.033857708077171</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.85815855152787</v>
+        <v>-23.82487791770421</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8062659997411086</v>
+        <v>-0.8304867599983018</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.981391825905915</v>
+        <v>-2.004473555815878</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.3928115455832</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.59408007761517</v>
+        <v>-25.55857375230841</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8522461673212505</v>
+        <v>-0.8778547116796667</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.038906312289618</v>
+        <v>-2.067866486175516</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.763353082985496</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.611617037828</v>
+        <v>-27.57600597409851</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.02578464148833</v>
+        <v>-1.052820246856494</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.23620731611443</v>
+        <v>-2.261265983753493</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.139217070060944</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.66826070662907</v>
+        <v>-29.62876122895558</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.051602662692213</v>
+        <v>-1.07979039071045</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.30568816729547</v>
+        <v>-2.32442325266198</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.523311441330012</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.86455996984282</v>
+        <v>-31.83196013576693</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.28087507005652</v>
+        <v>-1.311353951072058</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.517966765571217</v>
+        <v>-2.536662574029201</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.914440653919717</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.12954145376428</v>
+        <v>-34.09163923703748</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.412753836581227</v>
+        <v>-1.441700918164283</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.736438023091099</v>
+        <v>-2.757084584672501</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.30800052074495</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.34397355641382</v>
+        <v>-36.30755076990814</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.594265523178917</v>
+        <v>-1.619101621669671</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.813918271308434</v>
+        <v>-2.838165216171311</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.69878724058909</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.680033152463</v>
+        <v>-38.64567894980632</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.86530237660833</v>
+        <v>-1.890596705698545</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.077597250540797</v>
+        <v>-3.102786841208278</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.07441260259761</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.99183271134647</v>
+        <v>-40.95313186414633</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.883461400649804</v>
+        <v>-1.906700238193868</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.339364753558268</v>
+        <v>-3.35409359425521</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.43197797122549</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.32091410998101</v>
+        <v>-43.2828809702258</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.221923613714107</v>
+        <v>-2.245712327977523</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.381940922399561</v>
+        <v>-3.403307560637258</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.75249003387774</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.66139890439069</v>
+        <v>-45.62870742419491</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.261645660535903</v>
+        <v>-2.282344591328672</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.65043786907768</v>
+        <v>-3.667353124349189</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.03959456761262</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.20659494603361</v>
+        <v>-48.16723948369138</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.53604723579564</v>
+        <v>-2.55114266097215</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.676216613373038</v>
+        <v>-3.690159915899477</v>
       </c>
     </row>
   </sheetData>
